--- a/biology/Botanique/Porellales/Porellales.xlsx
+++ b/biology/Botanique/Porellales/Porellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Porellales sont un ordre de plantes de la division des Hépatiques (ou Marchantiophytes) et de la classe des Jungermanniopsida.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre a une aire de répartition cosmopolite[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre a une aire de répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'ordre des Porellales a été décrit en 1972 par le botaniste soviétique Roman Nicolaevich Schljakov[2]. Porella L. est le genre type.
-Deux ordres ont été placés en synonymes de Porellales[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'ordre des Porellales a été décrit en 1972 par le botaniste soviétique Roman Nicolaevich Schljakov. Porella L. est le genre type.
+Deux ordres ont été placés en synonymes de Porellales :
 Lepidolaenale Schljakov, 1975
 Radulales Stotler &amp; Crand.-Stotl., 2000</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (16 janvier 2024)[3] et GBIF       (16 janvier 2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (16 janvier 2024) et GBIF       (16 janvier 2024) :
 Frullaniaceae Lorch
 Goebeliellaceae Verd.
 Jubulaceae H.Klinggr.
@@ -585,7 +603,7 @@
 Lepidolaenaceae Nakai
 Porellaceae Cavers
 Radulaceae Müll.Frib.
-Selon Tropicos                                           (16 janvier 2024)[4] :
+Selon Tropicos                                           (16 janvier 2024) :
 sous-ordre des Jubulineae Müll.Frib., 1909
 Frullaniaceae Lorch, 1914
 Jubulaceae H.Klinggr., 1858
@@ -597,7 +615,7 @@
 Porellaceae Cavers, 1910
 sous-ordre des Radulineae R.M.Schust., 1963
 Radulaceae Müll.Frib., 1909
-Selon le Catalogue of Life                                   (16 janvier 2024)[5] :
+Selon le Catalogue of Life                                   (16 janvier 2024) :
 Goebeliellaceae Verd.
 Lepidolaenaceae Nakai
 Porellaceae Cavers</t>
